--- a/data/res.xlsx
+++ b/data/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khaled/Desktop/GitHubRepo/alghanem-games/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91040FEF-73CE-8043-8BB9-30C0DE14532F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8BD214-B9D1-C140-8B9E-215DB8215BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="4260" windowWidth="17720" windowHeight="13940" xr2:uid="{0A2F60CE-A680-534A-B2AB-B35BAA04A4F2}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -527,7 +527,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(Table1[[#This Row],[1]:[5]])</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -535,7 +535,9 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
